--- a/docs/gills/ksoloti_gills_bom.xlsx
+++ b/docs/gills/ksoloti_gills_bom.xlsx
@@ -338,12 +338,46 @@
     <t xml:space="preserve">display_i2c_oled</t>
   </si>
   <si>
-    <t xml:space="preserve">Library:128x64OLED_1_3in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3inch OLED, 4-pin header, I2c, SH1106, pinout GND-VCC-SCL-SDA
-Exact dimensions are a bit tricky to get as there are various manufacturers
-The one used in Gills is by Shenzhen Enrich Electronics</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Library:128x64OLED_1_3in, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">SH1106, white</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1.3inch OLED, 4-pin header, I2c, SH1106, white, pinout GND-VCC-SCL-SDA
+Exact dimensions are a bit tricky to get as there are various manufacturers.
+The one used in Gills is by </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Shenzhen Enrich Electronics, model ENH-OB0130011A</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">RV1, RV2, RV3, RV4, RV5, RV6, RV7, RV8, RV9, RV10</t>
@@ -582,7 +616,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -623,6 +657,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -808,9 +847,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1105920</xdr:colOff>
+      <xdr:colOff>1105560</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>744120</xdr:rowOff>
+      <xdr:rowOff>743760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -824,7 +863,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13830480" y="5746320"/>
-          <a:ext cx="1101240" cy="738720"/>
+          <a:ext cx="1100880" cy="738360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -845,9 +884,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>3310560</xdr:colOff>
+      <xdr:colOff>3310200</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>803880</xdr:rowOff>
+      <xdr:rowOff>803520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -861,7 +900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15447960" y="5754600"/>
-          <a:ext cx="1688400" cy="790200"/>
+          <a:ext cx="1688040" cy="789840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -990,7 +1029,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D10" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="48.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/docs/gills/ksoloti_gills_bom.xlsx
+++ b/docs/gills/ksoloti_gills_bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="160">
   <si>
     <t xml:space="preserve">Source:</t>
   </si>
@@ -115,7 +115,9 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(D-shaft:) </t>
+      <t xml:space="preserve">
+(D-shaft:) 
+</t>
     </r>
     <r>
       <rPr>
@@ -235,8 +237,7 @@
   </si>
   <si>
     <t xml:space="preserve">https://42keebs.eu/shop/parts/components/pj-320-trrs-socket/?attribute_type=PJ-320A%20(Through-Hole)&amp;attribute_pa_colour=black
-https://www.taydaelectronics.com/pj-320a-3-5-mm-audio-socket-through-hole-pcb-silver-plated.html
-</t>
+https://www.taydaelectronics.com/pj-320a-3-5-mm-audio-socket-through-hole-pcb-silver-plated.html</t>
   </si>
   <si>
     <t xml:space="preserve">J10, J11</t>
@@ -329,6 +330,16 @@
     <t xml:space="preserve">https://www.mouser.com/ProductDetail/Kingbright/WP115VEGW?qs=58z0TXQGVSQe%2FVnyoskf7A%3D%3D</t>
   </si>
   <si>
+    <t xml:space="preserve">LED standoffs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standoffs for 3mm LED, plastic, 4mm height.
+2 pcs for 2-pin LED, 2 pcs for 3-pin LED.</t>
+  </si>
+  <si>
     <t xml:space="preserve">OLED1</t>
   </si>
   <si>
@@ -336,6 +347,9 @@
   </si>
   <si>
     <t xml:space="preserve">display_i2c_oled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Library:128x64OLED_1_3in, SH1106, white</t>
   </si>
   <si>
     <r>
@@ -345,26 +359,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Library:128x64OLED_1_3in, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">SH1106, white</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1.3inch OLED, 4-pin header, I2c, SH1106, white, pinout GND-VCC-SCL-SDA
+      <t xml:space="preserve">1.3inch OLED, 4-pin header, I2c, SH1106, white, pinout GND-VCC-SCL-SDA.
 Exact dimensions are a bit tricky to get as there are various manufacturers.
 The one used in Gills is by </t>
     </r>
@@ -419,30 +414,9 @@
     <t xml:space="preserve">Library:TL1105T_with_LED</t>
   </si>
   <si>
-    <t xml:space="preserve">Double Pole Single Throw (DPST) Switch  Momentary tact switch, 6*6mm, with optional LED pads for an illuminated version.
-With 6.5mm diameter circular cap.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(very light click:) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://www.mouser.com/ProductDetail/CUI-Devices/TS02-66-120-BK-100-LCR-D?qs=A6eO%252BMLsxmR5F%2Fi9iPUK6w%3D%3D
-</t>
-    </r>
+    <t xml:space="preserve">Double Pole Single Throw (DPST) Switch  Momentary tact switch, 6*6mm. With 6.5mm diameter circular cap.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -460,8 +434,29 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">https://www.mouser.com/ProductDetail/CUI-Devices/TS02-66-120-BK-160-LCR-D?qs=A6eO%252BMLsxmT55wwvoE7v5Q%3D%3D</t>
+      <t xml:space="preserve">https://www.mouser.com/ProductDetail/CUI-Devices/TS02-66-120-BK-160-LCR-D?qs=A6eO%252BMLsxmT55wwvoE7v5Q%3D%3D
+</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+(very light click:) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://www.mouser.com/ProductDetail/CUI-Devices/TS02-66-120-BK-100-LCR-D?qs=A6eO%252BMLsxmR5F%2Fi9iPUK6w%3D%3D</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">H1, H2, H3 (Core)</t>
@@ -518,7 +513,7 @@
     <t xml:space="preserve">Potentiometer_THT:Potentiometer_Bourns_3266P_Horizontal</t>
   </si>
   <si>
-    <t xml:space="preserve">Potentiometer, horizontal, Bourns 3266P, https://www.bourns.com/docs/Product-Datasheets/3266.pdf</t>
+    <t xml:space="preserve">Trimmer Potentiometer, Bourns 3266P Horizontal, 50k</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.digikey.tw/en/products/detail/bourns-inc/3266P-1-503/3722092</t>
@@ -527,7 +522,7 @@
     <t xml:space="preserve">HEAT1</t>
   </si>
   <si>
-    <t xml:space="preserve">Heatshrink, 3mm diameter, ca. 3cm length (optional)</t>
+    <t xml:space="preserve">Heatshrink, 3-4mm diameter, ca. 3cm length (optional)</t>
   </si>
   <si>
     <t xml:space="preserve">Optional. For shielding LED1 and LED2 against light bleed from each other.</t>
@@ -616,7 +611,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -657,11 +652,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -842,14 +832,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>4680</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>5400</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>60120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1105560</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>743760</xdr:rowOff>
+      <xdr:colOff>2280600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>955080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -862,8 +852,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13830480" y="5746320"/>
-          <a:ext cx="1100880" cy="738360"/>
+          <a:off x="13830480" y="5621400"/>
+          <a:ext cx="2275920" cy="1525680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -877,16 +867,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1622160</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>13680</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4320</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>46800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>3310200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>803520</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3380400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>995040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -899,8 +889,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15447960" y="5754600"/>
-          <a:ext cx="1688040" cy="789840"/>
+          <a:off x="17260560" y="5608080"/>
+          <a:ext cx="3376080" cy="1578960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1026,10 +1016,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D10" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="48.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1106,7 +1096,7 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -1397,119 +1387,119 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="5" t="n">
+      <c r="B18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" customFormat="false" ht="124.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="F19" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="G19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="5" t="n">
+      <c r="E20" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="5" t="n">
+      <c r="E21" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G21" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="22" s="9" customFormat="true" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
+      <c r="D22" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E22" s="5" t="s">
+    </row>
+    <row r="23" s="9" customFormat="true" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>114</v>
@@ -1521,7 +1511,7 @@
         <v>115</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="G23" s="6"/>
     </row>
@@ -1542,7 +1532,7 @@
         <v>118</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G24" s="6"/>
     </row>
@@ -1563,51 +1553,55 @@
         <v>121</v>
       </c>
       <c r="F25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
+      <c r="B26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="F26" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>128</v>
-      </c>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="5" t="s">
+      <c r="F27" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5" t="s">
+      <c r="G27" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="28" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
         <v>132</v>
       </c>
@@ -1615,80 +1609,78 @@
         <v>29</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>141</v>
@@ -1704,102 +1696,102 @@
     </row>
     <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G33" s="6"/>
     </row>
     <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>153</v>
@@ -1810,13 +1802,32 @@
       <c r="D38" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="5"/>
+      <c r="F38" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="G38" s="6"/>
+      <c r="C39" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G39" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1827,8 +1838,7 @@
     <hyperlink ref="G15" r:id="rId5" display="https://www.mouser.com/ProductDetail/Kingbright/WP710A10SGD?qs=jBF9H7RTBaS5vBvRdVQZww%3D%3D"/>
     <hyperlink ref="G16" r:id="rId6" display="https://www.mouser.com/ProductDetail/Kingbright/WP710A10ID?qs=wRBQ8ZgBZ98VyHeNIlWGkQ%3D%3D"/>
     <hyperlink ref="G17" r:id="rId7" display="https://www.mouser.com/ProductDetail/Kingbright/WP115VEGW?qs=58z0TXQGVSQe%2FVnyoskf7A%3D%3D"/>
-    <hyperlink ref="F26" r:id="rId8" display="Potentiometer, horizontal, Bourns 3266P, https://www.bourns.com/docs/Product-Datasheets/3266.pdf"/>
-    <hyperlink ref="G26" r:id="rId9" display="https://www.digikey.tw/en/products/detail/bourns-inc/3266P-1-503/3722092"/>
+    <hyperlink ref="G27" r:id="rId8" display="https://www.digikey.tw/en/products/detail/bourns-inc/3266P-1-503/3722092"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1837,6 +1847,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId10"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>
--- a/docs/gills/ksoloti_gills_bom.xlsx
+++ b/docs/gills/ksoloti_gills_bom.xlsx
@@ -408,10 +408,10 @@
     <t xml:space="preserve">SW1, SW2, SW3, SW4</t>
   </si>
   <si>
-    <t xml:space="preserve">TL1105_with_LED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Library:TL1105T_with_LED</t>
+    <t xml:space="preserve">TL1105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Library:TL1105T</t>
   </si>
   <si>
     <t xml:space="preserve">Double Pole Single Throw (DPST) Switch  Momentary tact switch, 6*6mm. With 6.5mm diameter circular cap.</t>
@@ -522,7 +522,23 @@
     <t xml:space="preserve">HEAT1</t>
   </si>
   <si>
-    <t xml:space="preserve">Heatshrink, 3-4mm diameter, ca. 3cm length (optional)</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Isolation tape, or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Heatshrink, 3-4mm diameter, ca. 3cm length (optional)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Optional. For shielding LED1 and LED2 against light bleed from each other.</t>
@@ -611,7 +627,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -652,6 +668,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -709,7 +730,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -734,6 +755,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -748,6 +773,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -837,9 +866,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2280600</xdr:colOff>
+      <xdr:colOff>2280240</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>955080</xdr:rowOff>
+      <xdr:rowOff>954720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -853,7 +882,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13830480" y="5621400"/>
-          <a:ext cx="2275920" cy="1525680"/>
+          <a:ext cx="2275560" cy="1525320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -874,9 +903,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3380400</xdr:colOff>
+      <xdr:colOff>3380040</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>995040</xdr:rowOff>
+      <xdr:rowOff>994680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -890,7 +919,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17260560" y="5608080"/>
-          <a:ext cx="3376080" cy="1578960"/>
+          <a:ext cx="3375720" cy="1578600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1018,8 +1047,8 @@
   </sheetPr>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="48.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1085,16 +1114,16 @@
       <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
@@ -1106,16 +1135,16 @@
       <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1129,16 +1158,16 @@
       <c r="C6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
@@ -1150,16 +1179,16 @@
       <c r="C7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
@@ -1171,16 +1200,16 @@
       <c r="C8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1194,16 +1223,16 @@
       <c r="C9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="9" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1217,16 +1246,16 @@
       <c r="C10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1240,16 +1269,16 @@
       <c r="C11" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1263,16 +1292,16 @@
       <c r="C12" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="9" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1286,16 +1315,16 @@
       <c r="C13" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="6"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
@@ -1307,16 +1336,16 @@
       <c r="C14" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G14" s="6"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
@@ -1328,16 +1357,16 @@
       <c r="C15" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="9" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1351,16 +1380,16 @@
       <c r="C16" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="9" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1374,16 +1403,16 @@
       <c r="C17" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1397,16 +1426,16 @@
       <c r="C18" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G18" s="8"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="124.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
@@ -1418,16 +1447,16 @@
       <c r="C19" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="6"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
@@ -1439,16 +1468,16 @@
       <c r="C20" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G20" s="6"/>
+      <c r="G20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
@@ -1460,16 +1489,16 @@
       <c r="C21" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G21" s="6"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
@@ -1481,20 +1510,20 @@
       <c r="C22" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="23" s="9" customFormat="true" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" s="10" customFormat="true" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
         <v>112</v>
       </c>
@@ -1504,16 +1533,16 @@
       <c r="C23" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="6"/>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
@@ -1525,16 +1554,16 @@
       <c r="C24" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="6"/>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
@@ -1546,16 +1575,16 @@
       <c r="C25" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="6"/>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
@@ -1567,16 +1596,16 @@
       <c r="C26" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="G26" s="6"/>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
@@ -1588,35 +1617,35 @@
       <c r="C27" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="9" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
         <v>132</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5" t="s">
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="G28" s="6"/>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
@@ -1628,14 +1657,14 @@
       <c r="C29" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5" t="s">
+      <c r="E29" s="6"/>
+      <c r="F29" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="G29" s="6"/>
+      <c r="G29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
@@ -1647,16 +1676,16 @@
       <c r="C30" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5" t="s">
+      <c r="E30" s="6"/>
+      <c r="F30" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
         <v>139</v>
       </c>
@@ -1666,14 +1695,14 @@
       <c r="C31" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5" t="s">
+      <c r="E31" s="6"/>
+      <c r="F31" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="G31" s="6"/>
+      <c r="G31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
@@ -1685,14 +1714,14 @@
       <c r="C32" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5" t="s">
+      <c r="E32" s="6"/>
+      <c r="F32" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G32" s="6"/>
+      <c r="G32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
@@ -1704,14 +1733,14 @@
       <c r="C33" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5" t="s">
+      <c r="E33" s="6"/>
+      <c r="F33" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="G33" s="6"/>
+      <c r="G33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
@@ -1723,14 +1752,14 @@
       <c r="C34" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5" t="s">
+      <c r="E34" s="6"/>
+      <c r="F34" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="G34" s="6"/>
+      <c r="G34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
@@ -1742,14 +1771,14 @@
       <c r="C35" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5" t="s">
+      <c r="E35" s="6"/>
+      <c r="F35" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="G35" s="6"/>
+      <c r="G35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
@@ -1761,14 +1790,14 @@
       <c r="C36" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5" t="s">
+      <c r="E36" s="6"/>
+      <c r="F36" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="G36" s="6"/>
+      <c r="G36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
@@ -1780,14 +1809,14 @@
       <c r="C37" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5" t="s">
+      <c r="E37" s="6"/>
+      <c r="F37" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="G37" s="6"/>
+      <c r="G37" s="7"/>
     </row>
     <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
@@ -1799,14 +1828,14 @@
       <c r="C38" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5" t="s">
+      <c r="E38" s="6"/>
+      <c r="F38" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="G38" s="6"/>
+      <c r="G38" s="7"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
@@ -1818,16 +1847,16 @@
       <c r="C39" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="G39" s="6"/>
+      <c r="G39" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/docs/gills/ksoloti_gills_bom.xlsx
+++ b/docs/gills/ksoloti_gills_bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="169">
   <si>
     <t xml:space="preserve">Source:</t>
   </si>
@@ -489,6 +489,18 @@
     <t xml:space="preserve">Library:PinHeader_1x03_P2.54mm_Vertical_smcrt_sqr</t>
   </si>
   <si>
+    <t xml:space="preserve">PDM mic header (Core)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conn_01x02_Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Library:PinHeader_1x02_P2.54mm_Vertical_smcrt_sqr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optional. Connects the digital Mic clock and data lines to the Core.</t>
+  </si>
+  <si>
     <t xml:space="preserve">J1 (CV Expander)</t>
   </si>
   <si>
@@ -520,28 +532,55 @@
   </si>
   <si>
     <t xml:space="preserve">HEAT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isolation tape, or Heatshrink, 3-4mm diameter, ca. 3cm length (optional)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optional. For shielding LED1 and LED2 against light bleed from each other.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J14 (HP_POT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2*B1k to 2*B5k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Library:ALPS_POT_VERTICAL_PS_DUAL_HORIZONTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optional headphone control. Involves drilling a hole. B1k recommended but can be as low as 500R or as high as 5k, with varying response. See “Optional Headphone Volume Control” here: ksoloti.github.io/6-1-gills_build_guide.html</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="10"/>
+        <color rgb="FF808080"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Isolation tape, or </t>
+      <t xml:space="preserve">Example (</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">the right value may not be in stock!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Heatshrink, 3-4mm diameter, ca. 3cm length (optional)</t>
+      <t xml:space="preserve">): smallbear-electronics.mybigcommerce.com/dual-gang-9mm-pc-mount/ </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Optional. For shielding LED1 and LED2 against light bleed from each other.</t>
   </si>
   <si>
     <t xml:space="preserve">Core PCB</t>
@@ -627,7 +666,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -671,6 +710,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -730,7 +777,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -740,18 +787,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -777,6 +820,26 @@
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -866,7 +929,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2280240</xdr:colOff>
+      <xdr:colOff>2279880</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>954720</xdr:rowOff>
     </xdr:to>
@@ -881,8 +944,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13830480" y="5621400"/>
-          <a:ext cx="2275560" cy="1525320"/>
+          <a:off x="13830480" y="7868880"/>
+          <a:ext cx="2275200" cy="1524960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -903,7 +966,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3380040</xdr:colOff>
+      <xdr:colOff>3379680</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>994680</xdr:rowOff>
     </xdr:to>
@@ -918,8 +981,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17260560" y="5608080"/>
-          <a:ext cx="3375720" cy="1578600"/>
+          <a:off x="17260560" y="7855560"/>
+          <a:ext cx="3375360" cy="1578240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1045,10 +1108,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="48.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1062,7 +1125,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="1" width="48.67"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="80.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1073,7 +1136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="true" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="2" customFormat="true" ht="140.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1114,16 +1177,16 @@
       <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
@@ -1135,16 +1198,16 @@
       <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1158,16 +1221,16 @@
       <c r="C6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
@@ -1179,16 +1242,16 @@
       <c r="C7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
@@ -1200,16 +1263,16 @@
       <c r="C8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1223,16 +1286,16 @@
       <c r="C9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1246,16 +1309,16 @@
       <c r="C10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1269,16 +1332,16 @@
       <c r="C11" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1292,16 +1355,16 @@
       <c r="C12" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1315,16 +1378,16 @@
       <c r="C13" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="7"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
@@ -1336,16 +1399,16 @@
       <c r="C14" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G14" s="7"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
@@ -1357,16 +1420,16 @@
       <c r="C15" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="8" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1380,16 +1443,16 @@
       <c r="C16" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="8" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1403,16 +1466,16 @@
       <c r="C17" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="8" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1426,16 +1489,16 @@
       <c r="C18" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G18" s="9"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="124.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
@@ -1447,16 +1510,16 @@
       <c r="C19" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="7"/>
+      <c r="G19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
@@ -1468,16 +1531,16 @@
       <c r="C20" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="G20" s="7"/>
+      <c r="G20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
@@ -1489,16 +1552,16 @@
       <c r="C21" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G21" s="7"/>
+      <c r="G21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
@@ -1510,20 +1573,20 @@
       <c r="C22" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="23" s="10" customFormat="true" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" s="9" customFormat="true" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
         <v>112</v>
       </c>
@@ -1533,16 +1596,16 @@
       <c r="C23" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="7"/>
+      <c r="G23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
@@ -1554,16 +1617,16 @@
       <c r="C24" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="7"/>
+      <c r="G24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
@@ -1575,288 +1638,332 @@
       <c r="C25" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" s="12" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
         <v>126</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="F27" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="B28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="E28" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" s="12" customFormat="true" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B29" s="5" t="s">
+      <c r="C29" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" s="15" customFormat="true" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>144</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>146</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="G33" s="7"/>
+        <v>148</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G33" s="6"/>
     </row>
     <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G34" s="7"/>
+        <v>150</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="G35" s="7"/>
+        <v>153</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G35" s="6"/>
     </row>
     <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G36" s="7"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>155</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="G37" s="7"/>
+        <v>157</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G37" s="6"/>
     </row>
     <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="G38" s="7"/>
+        <v>159</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G38" s="6"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>156</v>
+        <v>24</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E39" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="F39" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="G39" s="7"/>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G41" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1867,7 +1974,7 @@
     <hyperlink ref="G15" r:id="rId5" display="https://www.mouser.com/ProductDetail/Kingbright/WP710A10SGD?qs=jBF9H7RTBaS5vBvRdVQZww%3D%3D"/>
     <hyperlink ref="G16" r:id="rId6" display="https://www.mouser.com/ProductDetail/Kingbright/WP710A10ID?qs=wRBQ8ZgBZ98VyHeNIlWGkQ%3D%3D"/>
     <hyperlink ref="G17" r:id="rId7" display="https://www.mouser.com/ProductDetail/Kingbright/WP115VEGW?qs=58z0TXQGVSQe%2FVnyoskf7A%3D%3D"/>
-    <hyperlink ref="G27" r:id="rId8" display="https://www.digikey.tw/en/products/detail/bourns-inc/3266P-1-503/3722092"/>
+    <hyperlink ref="G28" r:id="rId8" display="https://www.digikey.tw/en/products/detail/bourns-inc/3266P-1-503/3722092"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/docs/gills/ksoloti_gills_bom.xlsx
+++ b/docs/gills/ksoloti_gills_bom.xlsx
@@ -20,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="168">
   <si>
     <t xml:space="preserve">Source:</t>
   </si>
   <si>
     <t xml:space="preserve">ksoloti_gills_v04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3inch OLED, 4-pin header, I2c, SH1106, pinout GND-VCC-SCL-SDA</t>
   </si>
   <si>
     <t xml:space="preserve">Date:</t>
@@ -552,35 +549,7 @@
     <t xml:space="preserve">Optional headphone control. Involves drilling a hole. B1k recommended but can be as low as 500R or as high as 5k, with varying response. See “Optional Headphone Volume Control” here: ksoloti.github.io/6-1-gills_build_guide.html</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Example (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">the right value may not be in stock!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">): smallbear-electronics.mybigcommerce.com/dual-gang-9mm-pc-mount/ </t>
-    </r>
+    <t xml:space="preserve">Example (the right value may not be in stock!): smallbear-electronics.mybigcommerce.com/dual-gang-9mm-pc-mount/ </t>
   </si>
   <si>
     <t xml:space="preserve">Core PCB</t>
@@ -666,7 +635,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -714,12 +683,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -790,8 +753,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -830,15 +797,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -929,9 +892,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2279880</xdr:colOff>
+      <xdr:colOff>2279520</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>954720</xdr:rowOff>
+      <xdr:rowOff>954360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -944,8 +907,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13830480" y="7868880"/>
-          <a:ext cx="2275200" cy="1524960"/>
+          <a:off x="13830480" y="5646960"/>
+          <a:ext cx="2274840" cy="1524600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -966,9 +929,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3379680</xdr:colOff>
+      <xdr:colOff>3379320</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>994680</xdr:rowOff>
+      <xdr:rowOff>994320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -981,8 +944,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17260560" y="7855560"/>
-          <a:ext cx="3375360" cy="1578240"/>
+          <a:off x="17260560" y="5633640"/>
+          <a:ext cx="3375000" cy="1577880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1110,8 +1073,8 @@
   </sheetPr>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="48.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1125,845 +1088,843 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="1" width="48.67"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="80.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" s="2" customFormat="true" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="true" ht="140.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="4" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="D5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="C8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="C12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" customFormat="false" ht="124.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" s="10" customFormat="true" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+      <c r="C24" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" s="13" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" s="13" customFormat="true" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" s="15" customFormat="true" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="C35" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" customFormat="false" ht="124.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B22" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" s="9" customFormat="true" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
+      <c r="C36" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" s="12" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" s="12" customFormat="true" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" s="15" customFormat="true" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5" t="s">
+      <c r="C38" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="5" t="s">
+      <c r="B39" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G37" s="6"/>
-    </row>
-    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G38" s="6"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="5" t="s">
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G39" s="6"/>
-    </row>
-    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B40" s="5" t="s">
+      <c r="C40" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="D40" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5" t="s">
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="G40" s="6"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B41" s="5" t="s">
+      <c r="C41" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="D41" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E41" s="5" t="s">
+      <c r="F41" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="F41" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="G41" s="6"/>
+      <c r="G41" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/docs/gills/ksoloti_gills_bom.xlsx
+++ b/docs/gills/ksoloti_gills_bom.xlsx
@@ -885,16 +885,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4680</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>60120</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2661480</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>302760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2279520</xdr:colOff>
+      <xdr:colOff>2271600</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>954360</xdr:rowOff>
+      <xdr:rowOff>1521360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -907,8 +907,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13830480" y="5646960"/>
-          <a:ext cx="2274840" cy="1524600"/>
+          <a:off x="13822920" y="6189120"/>
+          <a:ext cx="2274480" cy="1524240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -925,13 +925,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>4320</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>46800</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3379320</xdr:colOff>
+      <xdr:colOff>3378960</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>994320</xdr:rowOff>
+      <xdr:rowOff>1019160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -945,7 +945,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17260560" y="5633640"/>
-          <a:ext cx="3375000" cy="1577880"/>
+          <a:ext cx="3374640" cy="1577520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1073,8 +1073,8 @@
   </sheetPr>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:G1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="48.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1088,7 +1088,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="1" width="48.67"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>

--- a/docs/gills/ksoloti_gills_bom.xlsx
+++ b/docs/gills/ksoloti_gills_bom.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">Source:</t>
   </si>
   <si>
-    <t xml:space="preserve">ksoloti_gills_v04</t>
+    <t xml:space="preserve">ksoloti_gills_v04, v05</t>
   </si>
   <si>
     <t xml:space="preserve">Date:</t>
@@ -1073,8 +1073,8 @@
   </sheetPr>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="48.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
